--- a/app/seeds/friend.xlsx
+++ b/app/seeds/friend.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>サンプルデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friendship_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンドシップコード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -260,8 +268,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="39">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -323,6 +337,9 @@
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -340,6 +357,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -668,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -848,38 +868,56 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="8"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/app/seeds/friend.xlsx
+++ b/app/seeds/friend.xlsx
@@ -691,7 +691,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -878,7 +878,9 @@
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>

--- a/app/seeds/friend.xlsx
+++ b/app/seeds/friend.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -171,14 +171,6 @@
   </si>
   <si>
     <t>サンプルデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>friendship_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フレンドシップコード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -688,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -868,58 +860,38 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+    <row r="16" spans="1:8">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="C21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/app/seeds/friend.xlsx
+++ b/app/seeds/friend.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>サンプルデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friendship_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンドシップコード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -260,7 +268,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -294,8 +302,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -303,10 +315,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -323,6 +334,8 @@
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -340,6 +353,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -668,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -848,38 +863,56 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="8"/>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="C20" s="8"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/app/seeds/friend.xlsx
+++ b/app/seeds/friend.xlsx
@@ -686,7 +686,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -871,7 +871,9 @@
         <v>23</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>

--- a/app/seeds/friend.xlsx
+++ b/app/seeds/friend.xlsx
@@ -174,11 +174,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>friendship_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フレンドシップコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># friendship_cd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -268,8 +268,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -317,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -336,6 +338,7 @@
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -355,6 +358,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -686,7 +690,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -865,7 +869,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -875,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
@@ -907,7 +911,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6">
